--- a/uploads/attachments/2020/FebFL Subs.xlsx
+++ b/uploads/attachments/2020/FebFL Subs.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bhutan Code Challenge-2019\BHUTAN STARTUP HACKATHON CHALLENGE\after event\data\subs\FixedLine\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935"/>
+    <workbookView xWindow="240" yWindow="1275" windowWidth="20055" windowHeight="7935"/>
   </bookViews>
   <sheets>
     <sheet name="Dzo wise" sheetId="1" r:id="rId1"/>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Dzongkhag Wise Monthly Telephone Line Connections 2019</t>
   </si>
@@ -95,13 +100,43 @@
   </si>
   <si>
     <t>Grand Total</t>
+  </si>
+  <si>
+    <t>March</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>June</t>
+  </si>
+  <si>
+    <t>July</t>
+  </si>
+  <si>
+    <t>August</t>
+  </si>
+  <si>
+    <t>September</t>
+  </si>
+  <si>
+    <t>October</t>
+  </si>
+  <si>
+    <t>November</t>
+  </si>
+  <si>
+    <t>December</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="26">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -681,6 +716,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -727,7 +770,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -759,9 +802,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -793,6 +837,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -968,16 +1013,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="37.5" customHeight="1">
+    <row r="1" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -985,13 +1030,13 @@
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
     </row>
-    <row r="2" spans="1:4" ht="18">
+    <row r="2" spans="1:14" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
@@ -1003,7 +1048,7 @@
       </c>
       <c r="D3" s="9"/>
     </row>
-    <row r="4" spans="1:4" ht="25.5">
+    <row r="4" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="3" t="s">
@@ -1012,8 +1057,38 @@
       <c r="D4" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -1026,8 +1101,38 @@
       <c r="D5" s="4">
         <v>120</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" s="4">
+        <v>100</v>
+      </c>
+      <c r="F5" s="4">
+        <v>120</v>
+      </c>
+      <c r="G5" s="4">
+        <v>100</v>
+      </c>
+      <c r="H5" s="4">
+        <v>120</v>
+      </c>
+      <c r="I5" s="4">
+        <v>100</v>
+      </c>
+      <c r="J5" s="4">
+        <v>120</v>
+      </c>
+      <c r="K5" s="4">
+        <v>100</v>
+      </c>
+      <c r="L5" s="4">
+        <v>120</v>
+      </c>
+      <c r="M5" s="4">
+        <v>100</v>
+      </c>
+      <c r="N5" s="4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -1040,8 +1145,38 @@
       <c r="D6" s="4">
         <v>130</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" s="4">
+        <v>110</v>
+      </c>
+      <c r="F6" s="4">
+        <v>130</v>
+      </c>
+      <c r="G6" s="4">
+        <v>110</v>
+      </c>
+      <c r="H6" s="4">
+        <v>130</v>
+      </c>
+      <c r="I6" s="4">
+        <v>110</v>
+      </c>
+      <c r="J6" s="4">
+        <v>130</v>
+      </c>
+      <c r="K6" s="4">
+        <v>110</v>
+      </c>
+      <c r="L6" s="4">
+        <v>130</v>
+      </c>
+      <c r="M6" s="4">
+        <v>110</v>
+      </c>
+      <c r="N6" s="4">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -1054,8 +1189,38 @@
       <c r="D7" s="4">
         <v>140</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" s="4">
+        <v>120</v>
+      </c>
+      <c r="F7" s="4">
+        <v>140</v>
+      </c>
+      <c r="G7" s="4">
+        <v>120</v>
+      </c>
+      <c r="H7" s="4">
+        <v>140</v>
+      </c>
+      <c r="I7" s="4">
+        <v>120</v>
+      </c>
+      <c r="J7" s="4">
+        <v>140</v>
+      </c>
+      <c r="K7" s="4">
+        <v>120</v>
+      </c>
+      <c r="L7" s="4">
+        <v>140</v>
+      </c>
+      <c r="M7" s="4">
+        <v>120</v>
+      </c>
+      <c r="N7" s="4">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -1068,8 +1233,38 @@
       <c r="D8" s="4">
         <v>150</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" s="4">
+        <v>130</v>
+      </c>
+      <c r="F8" s="4">
+        <v>150</v>
+      </c>
+      <c r="G8" s="4">
+        <v>130</v>
+      </c>
+      <c r="H8" s="4">
+        <v>150</v>
+      </c>
+      <c r="I8" s="4">
+        <v>130</v>
+      </c>
+      <c r="J8" s="4">
+        <v>150</v>
+      </c>
+      <c r="K8" s="4">
+        <v>130</v>
+      </c>
+      <c r="L8" s="4">
+        <v>150</v>
+      </c>
+      <c r="M8" s="4">
+        <v>130</v>
+      </c>
+      <c r="N8" s="4">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -1082,8 +1277,38 @@
       <c r="D9" s="4">
         <v>160</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" s="4">
+        <v>140</v>
+      </c>
+      <c r="F9" s="4">
+        <v>160</v>
+      </c>
+      <c r="G9" s="4">
+        <v>140</v>
+      </c>
+      <c r="H9" s="4">
+        <v>160</v>
+      </c>
+      <c r="I9" s="4">
+        <v>140</v>
+      </c>
+      <c r="J9" s="4">
+        <v>160</v>
+      </c>
+      <c r="K9" s="4">
+        <v>140</v>
+      </c>
+      <c r="L9" s="4">
+        <v>160</v>
+      </c>
+      <c r="M9" s="4">
+        <v>140</v>
+      </c>
+      <c r="N9" s="4">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -1096,8 +1321,38 @@
       <c r="D10" s="4">
         <v>170</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" s="4">
+        <v>150</v>
+      </c>
+      <c r="F10" s="4">
+        <v>170</v>
+      </c>
+      <c r="G10" s="4">
+        <v>150</v>
+      </c>
+      <c r="H10" s="4">
+        <v>170</v>
+      </c>
+      <c r="I10" s="4">
+        <v>150</v>
+      </c>
+      <c r="J10" s="4">
+        <v>170</v>
+      </c>
+      <c r="K10" s="4">
+        <v>150</v>
+      </c>
+      <c r="L10" s="4">
+        <v>170</v>
+      </c>
+      <c r="M10" s="4">
+        <v>150</v>
+      </c>
+      <c r="N10" s="4">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>7</v>
       </c>
@@ -1110,8 +1365,38 @@
       <c r="D11" s="4">
         <v>180</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" s="4">
+        <v>160</v>
+      </c>
+      <c r="F11" s="4">
+        <v>180</v>
+      </c>
+      <c r="G11" s="4">
+        <v>160</v>
+      </c>
+      <c r="H11" s="4">
+        <v>180</v>
+      </c>
+      <c r="I11" s="4">
+        <v>160</v>
+      </c>
+      <c r="J11" s="4">
+        <v>180</v>
+      </c>
+      <c r="K11" s="4">
+        <v>160</v>
+      </c>
+      <c r="L11" s="4">
+        <v>180</v>
+      </c>
+      <c r="M11" s="4">
+        <v>160</v>
+      </c>
+      <c r="N11" s="4">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>8</v>
       </c>
@@ -1124,8 +1409,38 @@
       <c r="D12" s="4">
         <v>190</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" s="4">
+        <v>170</v>
+      </c>
+      <c r="F12" s="4">
+        <v>190</v>
+      </c>
+      <c r="G12" s="4">
+        <v>170</v>
+      </c>
+      <c r="H12" s="4">
+        <v>190</v>
+      </c>
+      <c r="I12" s="4">
+        <v>170</v>
+      </c>
+      <c r="J12" s="4">
+        <v>190</v>
+      </c>
+      <c r="K12" s="4">
+        <v>170</v>
+      </c>
+      <c r="L12" s="4">
+        <v>190</v>
+      </c>
+      <c r="M12" s="4">
+        <v>170</v>
+      </c>
+      <c r="N12" s="4">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -1138,8 +1453,38 @@
       <c r="D13" s="4">
         <v>200</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" s="4">
+        <v>180</v>
+      </c>
+      <c r="F13" s="4">
+        <v>200</v>
+      </c>
+      <c r="G13" s="4">
+        <v>180</v>
+      </c>
+      <c r="H13" s="4">
+        <v>200</v>
+      </c>
+      <c r="I13" s="4">
+        <v>180</v>
+      </c>
+      <c r="J13" s="4">
+        <v>200</v>
+      </c>
+      <c r="K13" s="4">
+        <v>180</v>
+      </c>
+      <c r="L13" s="4">
+        <v>200</v>
+      </c>
+      <c r="M13" s="4">
+        <v>180</v>
+      </c>
+      <c r="N13" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -1152,8 +1497,38 @@
       <c r="D14" s="4">
         <v>210</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" s="4">
+        <v>190</v>
+      </c>
+      <c r="F14" s="4">
+        <v>210</v>
+      </c>
+      <c r="G14" s="4">
+        <v>190</v>
+      </c>
+      <c r="H14" s="4">
+        <v>210</v>
+      </c>
+      <c r="I14" s="4">
+        <v>190</v>
+      </c>
+      <c r="J14" s="4">
+        <v>210</v>
+      </c>
+      <c r="K14" s="4">
+        <v>190</v>
+      </c>
+      <c r="L14" s="4">
+        <v>210</v>
+      </c>
+      <c r="M14" s="4">
+        <v>190</v>
+      </c>
+      <c r="N14" s="4">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -1166,8 +1541,38 @@
       <c r="D15" s="4">
         <v>220</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" s="4">
+        <v>200</v>
+      </c>
+      <c r="F15" s="4">
+        <v>220</v>
+      </c>
+      <c r="G15" s="4">
+        <v>200</v>
+      </c>
+      <c r="H15" s="4">
+        <v>220</v>
+      </c>
+      <c r="I15" s="4">
+        <v>200</v>
+      </c>
+      <c r="J15" s="4">
+        <v>220</v>
+      </c>
+      <c r="K15" s="4">
+        <v>200</v>
+      </c>
+      <c r="L15" s="4">
+        <v>220</v>
+      </c>
+      <c r="M15" s="4">
+        <v>200</v>
+      </c>
+      <c r="N15" s="4">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>12</v>
       </c>
@@ -1180,8 +1585,38 @@
       <c r="D16" s="4">
         <v>230</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" s="4">
+        <v>210</v>
+      </c>
+      <c r="F16" s="4">
+        <v>230</v>
+      </c>
+      <c r="G16" s="4">
+        <v>210</v>
+      </c>
+      <c r="H16" s="4">
+        <v>230</v>
+      </c>
+      <c r="I16" s="4">
+        <v>210</v>
+      </c>
+      <c r="J16" s="4">
+        <v>230</v>
+      </c>
+      <c r="K16" s="4">
+        <v>210</v>
+      </c>
+      <c r="L16" s="4">
+        <v>230</v>
+      </c>
+      <c r="M16" s="4">
+        <v>210</v>
+      </c>
+      <c r="N16" s="4">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -1194,8 +1629,38 @@
       <c r="D17" s="4">
         <v>240</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" s="4">
+        <v>220</v>
+      </c>
+      <c r="F17" s="4">
+        <v>240</v>
+      </c>
+      <c r="G17" s="4">
+        <v>220</v>
+      </c>
+      <c r="H17" s="4">
+        <v>240</v>
+      </c>
+      <c r="I17" s="4">
+        <v>220</v>
+      </c>
+      <c r="J17" s="4">
+        <v>240</v>
+      </c>
+      <c r="K17" s="4">
+        <v>220</v>
+      </c>
+      <c r="L17" s="4">
+        <v>240</v>
+      </c>
+      <c r="M17" s="4">
+        <v>220</v>
+      </c>
+      <c r="N17" s="4">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -1208,8 +1673,38 @@
       <c r="D18" s="4">
         <v>250</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" s="4">
+        <v>230</v>
+      </c>
+      <c r="F18" s="4">
+        <v>250</v>
+      </c>
+      <c r="G18" s="4">
+        <v>230</v>
+      </c>
+      <c r="H18" s="4">
+        <v>250</v>
+      </c>
+      <c r="I18" s="4">
+        <v>230</v>
+      </c>
+      <c r="J18" s="4">
+        <v>250</v>
+      </c>
+      <c r="K18" s="4">
+        <v>230</v>
+      </c>
+      <c r="L18" s="4">
+        <v>250</v>
+      </c>
+      <c r="M18" s="4">
+        <v>230</v>
+      </c>
+      <c r="N18" s="4">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -1222,8 +1717,38 @@
       <c r="D19" s="4">
         <v>260</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" s="4">
+        <v>240</v>
+      </c>
+      <c r="F19" s="4">
+        <v>260</v>
+      </c>
+      <c r="G19" s="4">
+        <v>240</v>
+      </c>
+      <c r="H19" s="4">
+        <v>260</v>
+      </c>
+      <c r="I19" s="4">
+        <v>240</v>
+      </c>
+      <c r="J19" s="4">
+        <v>260</v>
+      </c>
+      <c r="K19" s="4">
+        <v>240</v>
+      </c>
+      <c r="L19" s="4">
+        <v>260</v>
+      </c>
+      <c r="M19" s="4">
+        <v>240</v>
+      </c>
+      <c r="N19" s="4">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -1236,8 +1761,38 @@
       <c r="D20" s="4">
         <v>270</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" s="4">
+        <v>250</v>
+      </c>
+      <c r="F20" s="4">
+        <v>270</v>
+      </c>
+      <c r="G20" s="4">
+        <v>250</v>
+      </c>
+      <c r="H20" s="4">
+        <v>270</v>
+      </c>
+      <c r="I20" s="4">
+        <v>250</v>
+      </c>
+      <c r="J20" s="4">
+        <v>270</v>
+      </c>
+      <c r="K20" s="4">
+        <v>250</v>
+      </c>
+      <c r="L20" s="4">
+        <v>270</v>
+      </c>
+      <c r="M20" s="4">
+        <v>250</v>
+      </c>
+      <c r="N20" s="4">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -1250,8 +1805,38 @@
       <c r="D21" s="4">
         <v>280</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21" s="4">
+        <v>260</v>
+      </c>
+      <c r="F21" s="4">
+        <v>280</v>
+      </c>
+      <c r="G21" s="4">
+        <v>260</v>
+      </c>
+      <c r="H21" s="4">
+        <v>280</v>
+      </c>
+      <c r="I21" s="4">
+        <v>260</v>
+      </c>
+      <c r="J21" s="4">
+        <v>280</v>
+      </c>
+      <c r="K21" s="4">
+        <v>260</v>
+      </c>
+      <c r="L21" s="4">
+        <v>280</v>
+      </c>
+      <c r="M21" s="4">
+        <v>260</v>
+      </c>
+      <c r="N21" s="4">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -1264,8 +1849,38 @@
       <c r="D22" s="4">
         <v>290</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22" s="4">
+        <v>270</v>
+      </c>
+      <c r="F22" s="4">
+        <v>290</v>
+      </c>
+      <c r="G22" s="4">
+        <v>270</v>
+      </c>
+      <c r="H22" s="4">
+        <v>290</v>
+      </c>
+      <c r="I22" s="4">
+        <v>270</v>
+      </c>
+      <c r="J22" s="4">
+        <v>290</v>
+      </c>
+      <c r="K22" s="4">
+        <v>270</v>
+      </c>
+      <c r="L22" s="4">
+        <v>290</v>
+      </c>
+      <c r="M22" s="4">
+        <v>270</v>
+      </c>
+      <c r="N22" s="4">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -1278,8 +1893,38 @@
       <c r="D23" s="4">
         <v>300</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23" s="4">
+        <v>280</v>
+      </c>
+      <c r="F23" s="4">
+        <v>300</v>
+      </c>
+      <c r="G23" s="4">
+        <v>280</v>
+      </c>
+      <c r="H23" s="4">
+        <v>300</v>
+      </c>
+      <c r="I23" s="4">
+        <v>280</v>
+      </c>
+      <c r="J23" s="4">
+        <v>300</v>
+      </c>
+      <c r="K23" s="4">
+        <v>280</v>
+      </c>
+      <c r="L23" s="4">
+        <v>300</v>
+      </c>
+      <c r="M23" s="4">
+        <v>280</v>
+      </c>
+      <c r="N23" s="4">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -1292,8 +1937,38 @@
       <c r="D24" s="4">
         <v>310</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24" s="4">
+        <v>290</v>
+      </c>
+      <c r="F24" s="4">
+        <v>310</v>
+      </c>
+      <c r="G24" s="4">
+        <v>290</v>
+      </c>
+      <c r="H24" s="4">
+        <v>310</v>
+      </c>
+      <c r="I24" s="4">
+        <v>290</v>
+      </c>
+      <c r="J24" s="4">
+        <v>310</v>
+      </c>
+      <c r="K24" s="4">
+        <v>290</v>
+      </c>
+      <c r="L24" s="4">
+        <v>310</v>
+      </c>
+      <c r="M24" s="4">
+        <v>290</v>
+      </c>
+      <c r="N24" s="4">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>26</v>
       </c>
@@ -1302,6 +1977,36 @@
         <v>3900</v>
       </c>
       <c r="D25" s="2">
+        <v>4300</v>
+      </c>
+      <c r="E25" s="2">
+        <v>3900</v>
+      </c>
+      <c r="F25" s="2">
+        <v>4300</v>
+      </c>
+      <c r="G25" s="2">
+        <v>3900</v>
+      </c>
+      <c r="H25" s="2">
+        <v>4300</v>
+      </c>
+      <c r="I25" s="2">
+        <v>3900</v>
+      </c>
+      <c r="J25" s="2">
+        <v>4300</v>
+      </c>
+      <c r="K25" s="2">
+        <v>3900</v>
+      </c>
+      <c r="L25" s="2">
+        <v>4300</v>
+      </c>
+      <c r="M25" s="2">
+        <v>3900</v>
+      </c>
+      <c r="N25" s="2">
         <v>4300</v>
       </c>
     </row>

--- a/uploads/attachments/2020/FebFL Subs.xlsx
+++ b/uploads/attachments/2020/FebFL Subs.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bhutan Code Challenge-2019\BHUTAN STARTUP HACKATHON CHALLENGE\after event\data\subs\FixedLine\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1275" windowWidth="20055" windowHeight="7935"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935"/>
   </bookViews>
   <sheets>
     <sheet name="Dzo wise" sheetId="1" r:id="rId1"/>
@@ -19,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Dzongkhag Wise Monthly Telephone Line Connections 2019</t>
   </si>
@@ -100,43 +95,13 @@
   </si>
   <si>
     <t>Grand Total</t>
-  </si>
-  <si>
-    <t>March</t>
-  </si>
-  <si>
-    <t>April</t>
-  </si>
-  <si>
-    <t>May</t>
-  </si>
-  <si>
-    <t>June</t>
-  </si>
-  <si>
-    <t>July</t>
-  </si>
-  <si>
-    <t>August</t>
-  </si>
-  <si>
-    <t>September</t>
-  </si>
-  <si>
-    <t>October</t>
-  </si>
-  <si>
-    <t>November</t>
-  </si>
-  <si>
-    <t>December</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="26" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -716,14 +681,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -770,7 +727,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -802,10 +759,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -837,7 +793,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1013,16 +968,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="37.5" customHeight="1">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1030,13 +985,13 @@
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
     </row>
-    <row r="2" spans="1:14" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="18">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
@@ -1048,7 +1003,7 @@
       </c>
       <c r="D3" s="9"/>
     </row>
-    <row r="4" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="25.5">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="3" t="s">
@@ -1057,38 +1012,8 @@
       <c r="D4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -1101,38 +1026,8 @@
       <c r="D5" s="4">
         <v>120</v>
       </c>
-      <c r="E5" s="4">
-        <v>100</v>
-      </c>
-      <c r="F5" s="4">
-        <v>120</v>
-      </c>
-      <c r="G5" s="4">
-        <v>100</v>
-      </c>
-      <c r="H5" s="4">
-        <v>120</v>
-      </c>
-      <c r="I5" s="4">
-        <v>100</v>
-      </c>
-      <c r="J5" s="4">
-        <v>120</v>
-      </c>
-      <c r="K5" s="4">
-        <v>100</v>
-      </c>
-      <c r="L5" s="4">
-        <v>120</v>
-      </c>
-      <c r="M5" s="4">
-        <v>100</v>
-      </c>
-      <c r="N5" s="4">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -1145,38 +1040,8 @@
       <c r="D6" s="4">
         <v>130</v>
       </c>
-      <c r="E6" s="4">
-        <v>110</v>
-      </c>
-      <c r="F6" s="4">
-        <v>130</v>
-      </c>
-      <c r="G6" s="4">
-        <v>110</v>
-      </c>
-      <c r="H6" s="4">
-        <v>130</v>
-      </c>
-      <c r="I6" s="4">
-        <v>110</v>
-      </c>
-      <c r="J6" s="4">
-        <v>130</v>
-      </c>
-      <c r="K6" s="4">
-        <v>110</v>
-      </c>
-      <c r="L6" s="4">
-        <v>130</v>
-      </c>
-      <c r="M6" s="4">
-        <v>110</v>
-      </c>
-      <c r="N6" s="4">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -1189,38 +1054,8 @@
       <c r="D7" s="4">
         <v>140</v>
       </c>
-      <c r="E7" s="4">
-        <v>120</v>
-      </c>
-      <c r="F7" s="4">
-        <v>140</v>
-      </c>
-      <c r="G7" s="4">
-        <v>120</v>
-      </c>
-      <c r="H7" s="4">
-        <v>140</v>
-      </c>
-      <c r="I7" s="4">
-        <v>120</v>
-      </c>
-      <c r="J7" s="4">
-        <v>140</v>
-      </c>
-      <c r="K7" s="4">
-        <v>120</v>
-      </c>
-      <c r="L7" s="4">
-        <v>140</v>
-      </c>
-      <c r="M7" s="4">
-        <v>120</v>
-      </c>
-      <c r="N7" s="4">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1">
         <v>4</v>
       </c>
@@ -1233,38 +1068,8 @@
       <c r="D8" s="4">
         <v>150</v>
       </c>
-      <c r="E8" s="4">
-        <v>130</v>
-      </c>
-      <c r="F8" s="4">
-        <v>150</v>
-      </c>
-      <c r="G8" s="4">
-        <v>130</v>
-      </c>
-      <c r="H8" s="4">
-        <v>150</v>
-      </c>
-      <c r="I8" s="4">
-        <v>130</v>
-      </c>
-      <c r="J8" s="4">
-        <v>150</v>
-      </c>
-      <c r="K8" s="4">
-        <v>130</v>
-      </c>
-      <c r="L8" s="4">
-        <v>150</v>
-      </c>
-      <c r="M8" s="4">
-        <v>130</v>
-      </c>
-      <c r="N8" s="4">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -1277,38 +1082,8 @@
       <c r="D9" s="4">
         <v>160</v>
       </c>
-      <c r="E9" s="4">
-        <v>140</v>
-      </c>
-      <c r="F9" s="4">
-        <v>160</v>
-      </c>
-      <c r="G9" s="4">
-        <v>140</v>
-      </c>
-      <c r="H9" s="4">
-        <v>160</v>
-      </c>
-      <c r="I9" s="4">
-        <v>140</v>
-      </c>
-      <c r="J9" s="4">
-        <v>160</v>
-      </c>
-      <c r="K9" s="4">
-        <v>140</v>
-      </c>
-      <c r="L9" s="4">
-        <v>160</v>
-      </c>
-      <c r="M9" s="4">
-        <v>140</v>
-      </c>
-      <c r="N9" s="4">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -1321,38 +1096,8 @@
       <c r="D10" s="4">
         <v>170</v>
       </c>
-      <c r="E10" s="4">
-        <v>150</v>
-      </c>
-      <c r="F10" s="4">
-        <v>170</v>
-      </c>
-      <c r="G10" s="4">
-        <v>150</v>
-      </c>
-      <c r="H10" s="4">
-        <v>170</v>
-      </c>
-      <c r="I10" s="4">
-        <v>150</v>
-      </c>
-      <c r="J10" s="4">
-        <v>170</v>
-      </c>
-      <c r="K10" s="4">
-        <v>150</v>
-      </c>
-      <c r="L10" s="4">
-        <v>170</v>
-      </c>
-      <c r="M10" s="4">
-        <v>150</v>
-      </c>
-      <c r="N10" s="4">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1">
         <v>7</v>
       </c>
@@ -1365,38 +1110,8 @@
       <c r="D11" s="4">
         <v>180</v>
       </c>
-      <c r="E11" s="4">
-        <v>160</v>
-      </c>
-      <c r="F11" s="4">
-        <v>180</v>
-      </c>
-      <c r="G11" s="4">
-        <v>160</v>
-      </c>
-      <c r="H11" s="4">
-        <v>180</v>
-      </c>
-      <c r="I11" s="4">
-        <v>160</v>
-      </c>
-      <c r="J11" s="4">
-        <v>180</v>
-      </c>
-      <c r="K11" s="4">
-        <v>160</v>
-      </c>
-      <c r="L11" s="4">
-        <v>180</v>
-      </c>
-      <c r="M11" s="4">
-        <v>160</v>
-      </c>
-      <c r="N11" s="4">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1">
         <v>8</v>
       </c>
@@ -1409,38 +1124,8 @@
       <c r="D12" s="4">
         <v>190</v>
       </c>
-      <c r="E12" s="4">
-        <v>170</v>
-      </c>
-      <c r="F12" s="4">
-        <v>190</v>
-      </c>
-      <c r="G12" s="4">
-        <v>170</v>
-      </c>
-      <c r="H12" s="4">
-        <v>190</v>
-      </c>
-      <c r="I12" s="4">
-        <v>170</v>
-      </c>
-      <c r="J12" s="4">
-        <v>190</v>
-      </c>
-      <c r="K12" s="4">
-        <v>170</v>
-      </c>
-      <c r="L12" s="4">
-        <v>190</v>
-      </c>
-      <c r="M12" s="4">
-        <v>170</v>
-      </c>
-      <c r="N12" s="4">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -1453,38 +1138,8 @@
       <c r="D13" s="4">
         <v>200</v>
       </c>
-      <c r="E13" s="4">
-        <v>180</v>
-      </c>
-      <c r="F13" s="4">
-        <v>200</v>
-      </c>
-      <c r="G13" s="4">
-        <v>180</v>
-      </c>
-      <c r="H13" s="4">
-        <v>200</v>
-      </c>
-      <c r="I13" s="4">
-        <v>180</v>
-      </c>
-      <c r="J13" s="4">
-        <v>200</v>
-      </c>
-      <c r="K13" s="4">
-        <v>180</v>
-      </c>
-      <c r="L13" s="4">
-        <v>200</v>
-      </c>
-      <c r="M13" s="4">
-        <v>180</v>
-      </c>
-      <c r="N13" s="4">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -1497,38 +1152,8 @@
       <c r="D14" s="4">
         <v>210</v>
       </c>
-      <c r="E14" s="4">
-        <v>190</v>
-      </c>
-      <c r="F14" s="4">
-        <v>210</v>
-      </c>
-      <c r="G14" s="4">
-        <v>190</v>
-      </c>
-      <c r="H14" s="4">
-        <v>210</v>
-      </c>
-      <c r="I14" s="4">
-        <v>190</v>
-      </c>
-      <c r="J14" s="4">
-        <v>210</v>
-      </c>
-      <c r="K14" s="4">
-        <v>190</v>
-      </c>
-      <c r="L14" s="4">
-        <v>210</v>
-      </c>
-      <c r="M14" s="4">
-        <v>190</v>
-      </c>
-      <c r="N14" s="4">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1">
         <v>11</v>
       </c>
@@ -1541,38 +1166,8 @@
       <c r="D15" s="4">
         <v>220</v>
       </c>
-      <c r="E15" s="4">
-        <v>200</v>
-      </c>
-      <c r="F15" s="4">
-        <v>220</v>
-      </c>
-      <c r="G15" s="4">
-        <v>200</v>
-      </c>
-      <c r="H15" s="4">
-        <v>220</v>
-      </c>
-      <c r="I15" s="4">
-        <v>200</v>
-      </c>
-      <c r="J15" s="4">
-        <v>220</v>
-      </c>
-      <c r="K15" s="4">
-        <v>200</v>
-      </c>
-      <c r="L15" s="4">
-        <v>220</v>
-      </c>
-      <c r="M15" s="4">
-        <v>200</v>
-      </c>
-      <c r="N15" s="4">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1">
         <v>12</v>
       </c>
@@ -1585,38 +1180,8 @@
       <c r="D16" s="4">
         <v>230</v>
       </c>
-      <c r="E16" s="4">
-        <v>210</v>
-      </c>
-      <c r="F16" s="4">
-        <v>230</v>
-      </c>
-      <c r="G16" s="4">
-        <v>210</v>
-      </c>
-      <c r="H16" s="4">
-        <v>230</v>
-      </c>
-      <c r="I16" s="4">
-        <v>210</v>
-      </c>
-      <c r="J16" s="4">
-        <v>230</v>
-      </c>
-      <c r="K16" s="4">
-        <v>210</v>
-      </c>
-      <c r="L16" s="4">
-        <v>230</v>
-      </c>
-      <c r="M16" s="4">
-        <v>210</v>
-      </c>
-      <c r="N16" s="4">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1">
         <v>13</v>
       </c>
@@ -1629,38 +1194,8 @@
       <c r="D17" s="4">
         <v>240</v>
       </c>
-      <c r="E17" s="4">
-        <v>220</v>
-      </c>
-      <c r="F17" s="4">
-        <v>240</v>
-      </c>
-      <c r="G17" s="4">
-        <v>220</v>
-      </c>
-      <c r="H17" s="4">
-        <v>240</v>
-      </c>
-      <c r="I17" s="4">
-        <v>220</v>
-      </c>
-      <c r="J17" s="4">
-        <v>240</v>
-      </c>
-      <c r="K17" s="4">
-        <v>220</v>
-      </c>
-      <c r="L17" s="4">
-        <v>240</v>
-      </c>
-      <c r="M17" s="4">
-        <v>220</v>
-      </c>
-      <c r="N17" s="4">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1">
         <v>14</v>
       </c>
@@ -1673,38 +1208,8 @@
       <c r="D18" s="4">
         <v>250</v>
       </c>
-      <c r="E18" s="4">
-        <v>230</v>
-      </c>
-      <c r="F18" s="4">
-        <v>250</v>
-      </c>
-      <c r="G18" s="4">
-        <v>230</v>
-      </c>
-      <c r="H18" s="4">
-        <v>250</v>
-      </c>
-      <c r="I18" s="4">
-        <v>230</v>
-      </c>
-      <c r="J18" s="4">
-        <v>250</v>
-      </c>
-      <c r="K18" s="4">
-        <v>230</v>
-      </c>
-      <c r="L18" s="4">
-        <v>250</v>
-      </c>
-      <c r="M18" s="4">
-        <v>230</v>
-      </c>
-      <c r="N18" s="4">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1">
         <v>15</v>
       </c>
@@ -1717,38 +1222,8 @@
       <c r="D19" s="4">
         <v>260</v>
       </c>
-      <c r="E19" s="4">
-        <v>240</v>
-      </c>
-      <c r="F19" s="4">
-        <v>260</v>
-      </c>
-      <c r="G19" s="4">
-        <v>240</v>
-      </c>
-      <c r="H19" s="4">
-        <v>260</v>
-      </c>
-      <c r="I19" s="4">
-        <v>240</v>
-      </c>
-      <c r="J19" s="4">
-        <v>260</v>
-      </c>
-      <c r="K19" s="4">
-        <v>240</v>
-      </c>
-      <c r="L19" s="4">
-        <v>260</v>
-      </c>
-      <c r="M19" s="4">
-        <v>240</v>
-      </c>
-      <c r="N19" s="4">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1">
         <v>16</v>
       </c>
@@ -1761,38 +1236,8 @@
       <c r="D20" s="4">
         <v>270</v>
       </c>
-      <c r="E20" s="4">
-        <v>250</v>
-      </c>
-      <c r="F20" s="4">
-        <v>270</v>
-      </c>
-      <c r="G20" s="4">
-        <v>250</v>
-      </c>
-      <c r="H20" s="4">
-        <v>270</v>
-      </c>
-      <c r="I20" s="4">
-        <v>250</v>
-      </c>
-      <c r="J20" s="4">
-        <v>270</v>
-      </c>
-      <c r="K20" s="4">
-        <v>250</v>
-      </c>
-      <c r="L20" s="4">
-        <v>270</v>
-      </c>
-      <c r="M20" s="4">
-        <v>250</v>
-      </c>
-      <c r="N20" s="4">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1">
         <v>17</v>
       </c>
@@ -1805,38 +1250,8 @@
       <c r="D21" s="4">
         <v>280</v>
       </c>
-      <c r="E21" s="4">
-        <v>260</v>
-      </c>
-      <c r="F21" s="4">
-        <v>280</v>
-      </c>
-      <c r="G21" s="4">
-        <v>260</v>
-      </c>
-      <c r="H21" s="4">
-        <v>280</v>
-      </c>
-      <c r="I21" s="4">
-        <v>260</v>
-      </c>
-      <c r="J21" s="4">
-        <v>280</v>
-      </c>
-      <c r="K21" s="4">
-        <v>260</v>
-      </c>
-      <c r="L21" s="4">
-        <v>280</v>
-      </c>
-      <c r="M21" s="4">
-        <v>260</v>
-      </c>
-      <c r="N21" s="4">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1">
         <v>18</v>
       </c>
@@ -1849,38 +1264,8 @@
       <c r="D22" s="4">
         <v>290</v>
       </c>
-      <c r="E22" s="4">
-        <v>270</v>
-      </c>
-      <c r="F22" s="4">
-        <v>290</v>
-      </c>
-      <c r="G22" s="4">
-        <v>270</v>
-      </c>
-      <c r="H22" s="4">
-        <v>290</v>
-      </c>
-      <c r="I22" s="4">
-        <v>270</v>
-      </c>
-      <c r="J22" s="4">
-        <v>290</v>
-      </c>
-      <c r="K22" s="4">
-        <v>270</v>
-      </c>
-      <c r="L22" s="4">
-        <v>290</v>
-      </c>
-      <c r="M22" s="4">
-        <v>270</v>
-      </c>
-      <c r="N22" s="4">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1">
         <v>19</v>
       </c>
@@ -1893,38 +1278,8 @@
       <c r="D23" s="4">
         <v>300</v>
       </c>
-      <c r="E23" s="4">
-        <v>280</v>
-      </c>
-      <c r="F23" s="4">
-        <v>300</v>
-      </c>
-      <c r="G23" s="4">
-        <v>280</v>
-      </c>
-      <c r="H23" s="4">
-        <v>300</v>
-      </c>
-      <c r="I23" s="4">
-        <v>280</v>
-      </c>
-      <c r="J23" s="4">
-        <v>300</v>
-      </c>
-      <c r="K23" s="4">
-        <v>280</v>
-      </c>
-      <c r="L23" s="4">
-        <v>300</v>
-      </c>
-      <c r="M23" s="4">
-        <v>280</v>
-      </c>
-      <c r="N23" s="4">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1">
         <v>20</v>
       </c>
@@ -1937,38 +1292,8 @@
       <c r="D24" s="4">
         <v>310</v>
       </c>
-      <c r="E24" s="4">
-        <v>290</v>
-      </c>
-      <c r="F24" s="4">
-        <v>310</v>
-      </c>
-      <c r="G24" s="4">
-        <v>290</v>
-      </c>
-      <c r="H24" s="4">
-        <v>310</v>
-      </c>
-      <c r="I24" s="4">
-        <v>290</v>
-      </c>
-      <c r="J24" s="4">
-        <v>310</v>
-      </c>
-      <c r="K24" s="4">
-        <v>290</v>
-      </c>
-      <c r="L24" s="4">
-        <v>310</v>
-      </c>
-      <c r="M24" s="4">
-        <v>290</v>
-      </c>
-      <c r="N24" s="4">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="8" t="s">
         <v>26</v>
       </c>
@@ -1977,36 +1302,6 @@
         <v>3900</v>
       </c>
       <c r="D25" s="2">
-        <v>4300</v>
-      </c>
-      <c r="E25" s="2">
-        <v>3900</v>
-      </c>
-      <c r="F25" s="2">
-        <v>4300</v>
-      </c>
-      <c r="G25" s="2">
-        <v>3900</v>
-      </c>
-      <c r="H25" s="2">
-        <v>4300</v>
-      </c>
-      <c r="I25" s="2">
-        <v>3900</v>
-      </c>
-      <c r="J25" s="2">
-        <v>4300</v>
-      </c>
-      <c r="K25" s="2">
-        <v>3900</v>
-      </c>
-      <c r="L25" s="2">
-        <v>4300</v>
-      </c>
-      <c r="M25" s="2">
-        <v>3900</v>
-      </c>
-      <c r="N25" s="2">
         <v>4300</v>
       </c>
     </row>
